--- a/files/spawn/불량구분결과_test.xlsx
+++ b/files/spawn/불량구분결과_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devs\partmaster\files\spawn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BAE84A-18FB-4BBD-BEAC-2CF1E49B6335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE3D6C1-2859-44AE-B9CE-4BC0C20F0EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="4140" windowWidth="18900" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="품번체계" sheetId="1" r:id="rId1"/>
@@ -12378,14 +12378,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F2182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -55891,8 +55895,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2182" xr:uid="{7E0806B3-5E05-4057-ACBC-20613317185C}"/>
+  <autoFilter ref="A1:F2182" xr:uid="{E46FEF00-335F-442D-A36F-9CCE8B51BE33}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>